--- a/Finflux Automation Excels/Client/5023-MonthlyMeetingLoan-Disb-Repayment-WaiveInterest-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5023-MonthlyMeetingLoan-Disb-Repayment-WaiveInterest-Disb2ndTranche.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="10"/>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +297,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -346,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -385,10 +392,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -860,221 +869,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="17"/>
+    <col min="7" max="7" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>1351</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="19">
         <v>42038</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="18">
         <v>1352</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="19">
         <v>42038</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="18">
         <v>1364</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="19">
         <v>42057</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="18">
         <v>1365</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <v>42057</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>1366</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="19">
         <v>42095</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="18">
         <v>1367</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="19">
         <v>42095</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1927,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
